--- a/Support/DBScripts/Отчеты/Формы/Зачисленные медалисты.xlsx
+++ b/Support/DBScripts/Отчеты/Формы/Зачисленные медалисты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="155">
   <si>
     <t>Очная</t>
   </si>
@@ -291,6 +291,204 @@
   </si>
   <si>
     <t>Отличие</t>
+  </si>
+  <si>
+    <t>89041037487, 89121418309</t>
+  </si>
+  <si>
+    <t>89505661026, 89539467046</t>
+  </si>
+  <si>
+    <t>89129490349,89129490352 Наталья Ивановна</t>
+  </si>
+  <si>
+    <t>89129690894</t>
+  </si>
+  <si>
+    <t>88214277568</t>
+  </si>
+  <si>
+    <t>762852</t>
+  </si>
+  <si>
+    <t>89129433650</t>
+  </si>
+  <si>
+    <t>37113</t>
+  </si>
+  <si>
+    <t>88214231864</t>
+  </si>
+  <si>
+    <t>89129527830</t>
+  </si>
+  <si>
+    <t>89115882407</t>
+  </si>
+  <si>
+    <t>89116840617</t>
+  </si>
+  <si>
+    <t>89005024974</t>
+  </si>
+  <si>
+    <t>89121124068</t>
+  </si>
+  <si>
+    <t>89285082336</t>
+  </si>
+  <si>
+    <t>89818300260</t>
+  </si>
+  <si>
+    <t>89121186691</t>
+  </si>
+  <si>
+    <t>89633556678</t>
+  </si>
+  <si>
+    <t>89115090675</t>
+  </si>
+  <si>
+    <t>89042363289</t>
+  </si>
+  <si>
+    <t>89083291349</t>
+  </si>
+  <si>
+    <t>89042356612</t>
+  </si>
+  <si>
+    <t>89121093365</t>
+  </si>
+  <si>
+    <t>89042313664</t>
+  </si>
+  <si>
+    <t>89048632153</t>
+  </si>
+  <si>
+    <t>890830288310</t>
+  </si>
+  <si>
+    <t>89042278926</t>
+  </si>
+  <si>
+    <t>89121528817</t>
+  </si>
+  <si>
+    <t>89129471867</t>
+  </si>
+  <si>
+    <t>89630220204</t>
+  </si>
+  <si>
+    <t>89086977769</t>
+  </si>
+  <si>
+    <t>89532621714</t>
+  </si>
+  <si>
+    <t>89042217096</t>
+  </si>
+  <si>
+    <t>89517393394</t>
+  </si>
+  <si>
+    <t>89121317942</t>
+  </si>
+  <si>
+    <t>89042369821</t>
+  </si>
+  <si>
+    <t>89042371251</t>
+  </si>
+  <si>
+    <t>89121817036</t>
+  </si>
+  <si>
+    <t>41917</t>
+  </si>
+  <si>
+    <t>89116500392</t>
+  </si>
+  <si>
+    <t>88214192024</t>
+  </si>
+  <si>
+    <t>89042032315</t>
+  </si>
+  <si>
+    <t>89125442279</t>
+  </si>
+  <si>
+    <t>89042743834</t>
+  </si>
+  <si>
+    <t>87075666080</t>
+  </si>
+  <si>
+    <t>89125047179</t>
+  </si>
+  <si>
+    <t>89087192746</t>
+  </si>
+  <si>
+    <t>89048646333</t>
+  </si>
+  <si>
+    <t>89041053177</t>
+  </si>
+  <si>
+    <t>89121773639</t>
+  </si>
+  <si>
+    <t>88214966950</t>
+  </si>
+  <si>
+    <t>89121263285</t>
+  </si>
+  <si>
+    <t>89042262974</t>
+  </si>
+  <si>
+    <t>755206</t>
+  </si>
+  <si>
+    <t>89091266009</t>
+  </si>
+  <si>
+    <t>780234</t>
+  </si>
+  <si>
+    <t>89091220751</t>
+  </si>
+  <si>
+    <t>89083287536</t>
+  </si>
+  <si>
+    <t>89121470807</t>
+  </si>
+  <si>
+    <t>89041055336</t>
+  </si>
+  <si>
+    <t>89041010487</t>
+  </si>
+  <si>
+    <t>88214948210</t>
+  </si>
+  <si>
+    <t>89121459329</t>
+  </si>
+  <si>
+    <t>89121030079</t>
+  </si>
+  <si>
+    <t>Дом телефон</t>
+  </si>
+  <si>
+    <t>Сотовый</t>
   </si>
 </sst>
 </file>
@@ -324,7 +522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -347,19 +545,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -640,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,32 +871,42 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,8 +928,12 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,8 +955,12 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +982,14 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +1011,12 @@
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,8 +1038,14 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,8 +1067,14 @@
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +1096,12 @@
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,8 +1123,12 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,8 +1150,12 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +1177,12 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,8 +1204,12 @@
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +1231,14 @@
       <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1260,12 @@
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1287,12 @@
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1314,12 @@
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1341,12 @@
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,8 +1368,12 @@
       <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1395,12 @@
       <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1422,12 @@
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1449,12 @@
       <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1476,12 @@
       <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1503,12 @@
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1530,12 @@
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1557,12 @@
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1584,12 @@
       <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1611,12 @@
       <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1638,12 @@
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1665,12 @@
       <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,8 +1692,12 @@
       <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1719,12 @@
       <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1746,12 @@
       <c r="G32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,8 +1773,12 @@
       <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,8 +1800,12 @@
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1827,14 @@
       <c r="G35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,8 +1856,14 @@
       <c r="G36" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,8 +1885,12 @@
       <c r="G37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +1912,12 @@
       <c r="G38" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1553,8 +1939,12 @@
       <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1966,12 @@
       <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1993,12 @@
       <c r="G41" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,8 +2020,12 @@
       <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +2047,12 @@
       <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,8 +2074,12 @@
       <c r="G44" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,8 +2101,14 @@
       <c r="G45" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +2130,12 @@
       <c r="G46" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,8 +2157,12 @@
       <c r="G47" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,8 +2184,14 @@
       <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -1783,8 +2213,14 @@
       <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -1806,8 +2242,12 @@
       <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -1829,8 +2269,12 @@
       <c r="G51" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -1852,8 +2296,12 @@
       <c r="G52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -1875,8 +2323,12 @@
       <c r="G53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
@@ -1898,8 +2350,14 @@
       <c r="G54" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -1920,6 +2378,10 @@
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
